--- a/senhas.xlsx
+++ b/senhas.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desenvolvimento\OneDrive - Syara Education\desenvolvimento\RPA\suframa\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92C38B54-EB0B-4B1C-AF7C-E05C6EC677C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E6B5D21-FC95-42A7-862C-190B72CC2204}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{D4E07ABC-C3AC-4034-AC31-8AEF14E3208B}"/>
   </bookViews>
@@ -69,6 +69,9 @@
     <t>SOLAR FILIAL</t>
   </si>
   <si>
+    <t>07242.947000239</t>
+  </si>
+  <si>
     <t>FUCK DISTRIBUIDORA DE PEÇAS</t>
   </si>
   <si>
@@ -178,9 +181,6 @@
   </si>
   <si>
     <t>CULTIVAR\01 - CULTIVAR MATRIZ -----------------------CNPJ - 18.337.224-0001-59</t>
-  </si>
-  <si>
-    <t>07242947000239</t>
   </si>
 </sst>
 </file>
@@ -190,7 +190,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -231,13 +231,6 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -410,7 +403,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -470,7 +463,6 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hiperlink" xfId="2" builtinId="8"/>
@@ -802,8 +794,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B62ACECC-E7B7-4402-9CAF-C4FFE4C03BA4}">
   <dimension ref="B1:F20"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -822,7 +814,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="20" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>1</v>
@@ -837,7 +829,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="21" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>4</v>
@@ -852,7 +844,7 @@
         <v>7</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>8</v>
@@ -867,7 +859,7 @@
         <v>10</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D4" s="11" t="s">
         <v>11</v>
@@ -882,10 +874,10 @@
         <v>13</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>12</v>
@@ -893,90 +885,90 @@
     </row>
     <row r="6" spans="2:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="2:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F7" s="16"/>
     </row>
     <row r="8" spans="2:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F8" s="16"/>
     </row>
     <row r="9" spans="2:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F9" s="16"/>
     </row>
     <row r="10" spans="2:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F10" s="16"/>
     </row>
     <row r="11" spans="2:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F11" s="16"/>
     </row>
@@ -985,7 +977,7 @@
         <v>3</v>
       </c>
       <c r="C12" s="23" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D12" s="9" t="s">
         <v>5</v>
@@ -997,28 +989,28 @@
     </row>
     <row r="13" spans="2:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F13" s="16"/>
     </row>
     <row r="14" spans="2:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C14" s="24" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E14" s="13">
         <v>18337224</v>
@@ -1026,7 +1018,6 @@
       <c r="F14" s="16"/>
     </row>
     <row r="15" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="D15" s="25"/>
       <c r="F15" s="16"/>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.25">
@@ -1054,6 +1045,5 @@
     <hyperlink ref="E12" r:id="rId1" xr:uid="{EDF0D5D9-CC2E-4D0E-AF27-123CF6E94CB4}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>